--- a/FiltaSymphony/CustomerPage.xlsx
+++ b/FiltaSymphony/CustomerPage.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9DE1BA9E-D313-43D8-8389-67817B8351E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224306C6-D413-43D9-96AB-C4AEA9304A31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="23280" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="278" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerFryer" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,12 +20,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>URL</t>
   </si>
   <si>
     <t>https://dev.filtasymphony.com/index.php?module=Accounts&amp;action=index&amp;parentTab=Customers</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Kunal</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Chavan</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Per Fryer Customer</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Industrial &amp; Commercial Bank of India</t>
+  </si>
+  <si>
+    <t>NCAChain</t>
+  </si>
+  <si>
+    <t>Sodexo</t>
+  </si>
+  <si>
+    <t>NcaUnitCode</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>PrimaryEmail</t>
+  </si>
+  <si>
+    <t>kunalchavan@benchmarkit.solutions</t>
+  </si>
+  <si>
+    <t>Site_Street</t>
+  </si>
+  <si>
+    <t>234 W 42nd St</t>
+  </si>
+  <si>
+    <t>Site_City</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Site_State</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Site_PostalCode</t>
+  </si>
+  <si>
+    <t>Office_Phone</t>
+  </si>
+  <si>
+    <t>Ext</t>
+  </si>
+  <si>
+    <t>ArrivalNotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Museum chain for life-size wax replicas of famous Americans &amp; historic icons in themed galleries.
+</t>
+  </si>
+  <si>
+    <t>DepartureNote</t>
+  </si>
+  <si>
+    <t>The place is nice, but it's unusual small, very few pieces of wax sculptures</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Nca_Supplier</t>
+  </si>
+  <si>
+    <t>InvoiceStreet</t>
+  </si>
+  <si>
+    <t>InvoiceCity</t>
+  </si>
+  <si>
+    <t>InvoiceState</t>
+  </si>
+  <si>
+    <t>InvoicePostal</t>
+  </si>
+  <si>
+    <t>InvoiceCountry</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Service_Frequency</t>
+  </si>
+  <si>
+    <t>I would like to receive a service summary after each service</t>
+  </si>
+  <si>
+    <t>Site_Contry</t>
   </si>
 </sst>
 </file>
@@ -71,9 +185,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -355,30 +472,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>2410</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2">
+        <v>10036</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>2125129600</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2">
+        <v>7258742145</v>
+      </c>
+      <c r="T2">
+        <v>241991</v>
+      </c>
+      <c r="U2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2">
+        <v>10036</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{21BAC863-7455-48E1-9886-9818CA9D4FC6}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{8AA9E798-C90C-4BC3-80AB-4CEFD5A257AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FiltaSymphony/CustomerPage.xlsx
+++ b/FiltaSymphony/CustomerPage.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224306C6-D413-43D9-96AB-C4AEA9304A31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75555324-0F4D-42E2-9F00-A9BFEFD1823B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="278" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/FiltaSymphony/CustomerPage.xlsx
+++ b/FiltaSymphony/CustomerPage.xlsx
@@ -3,12 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75555324-0F4D-42E2-9F00-A9BFEFD1823B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B494423-6899-4D5A-8191-3292BCC1EF0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="278" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="278" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerFryer" sheetId="1" r:id="rId1"/>
+    <sheet name="Pricing" sheetId="2" r:id="rId2"/>
+    <sheet name="UnitData" sheetId="3" r:id="rId3"/>
+    <sheet name="Marketing" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>URL</t>
   </si>
@@ -47,9 +50,6 @@
   </si>
   <si>
     <t>Company</t>
-  </si>
-  <si>
-    <t>Industrial &amp; Commercial Bank of India</t>
   </si>
   <si>
     <t>NCAChain</t>
@@ -141,6 +141,111 @@
   </si>
   <si>
     <t>Site_Contry</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>Per Fryer</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>Defaultpricing</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>InvoicePeriod</t>
+  </si>
+  <si>
+    <t>Per Job</t>
+  </si>
+  <si>
+    <t>Payement</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Please add Per Frying pricing details in the Fryers sub-panel.</t>
+  </si>
+  <si>
+    <t>Per Fryer Customer DFN</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Soyabean</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Waste Oil</t>
+  </si>
+  <si>
+    <t>Wastage</t>
+  </si>
+  <si>
+    <t>RTI</t>
+  </si>
+  <si>
+    <t>RT Added</t>
+  </si>
+  <si>
+    <t>ServicTime</t>
+  </si>
+  <si>
+    <t>10 to 7</t>
+  </si>
+  <si>
+    <t>DumpDesc</t>
+  </si>
+  <si>
+    <t>DumpAdded</t>
+  </si>
+  <si>
+    <t>Sub Type</t>
+  </si>
+  <si>
+    <t>Restro &amp; Bar</t>
+  </si>
+  <si>
+    <t>Affiliation</t>
+  </si>
+  <si>
+    <t>ChainInput</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>NCA</t>
+  </si>
+  <si>
+    <t>Aramark</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>US</t>
   </si>
 </sst>
 </file>
@@ -185,12 +290,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -474,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,67 +624,67 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" t="s">
-        <v>25</v>
-      </c>
       <c r="R1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>32</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>33</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" t="s">
-        <v>35</v>
-      </c>
       <c r="Z1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="158.4" x14ac:dyDescent="0.3">
@@ -593,10 +701,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>24</v>
@@ -605,22 +713,22 @@
         <v>2410</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2">
         <v>10036</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2">
         <v>2125129600</v>
@@ -629,10 +737,10 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S2">
         <v>7258742145</v>
@@ -641,22 +749,22 @@
         <v>241991</v>
       </c>
       <c r="U2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X2">
         <v>10036</v>
       </c>
       <c r="Y2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -666,4 +774,203 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA02278-208F-4558-975B-10446BEB3D40}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="4">
+        <v>150</v>
+      </c>
+      <c r="D3" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D4" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D5" s="4">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30FDFC6-1CAD-42FB-ABBA-22D058B18631}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347680E2-6370-44C2-83B8-11D37EADBB09}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FiltaSymphony/CustomerPage.xlsx
+++ b/FiltaSymphony/CustomerPage.xlsx
@@ -3,17 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B494423-6899-4D5A-8191-3292BCC1EF0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9F855854-32ED-4674-9320-22F393F44170}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="278" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23304" windowHeight="13224" tabRatio="450" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerFryer" sheetId="1" r:id="rId1"/>
     <sheet name="Pricing" sheetId="2" r:id="rId2"/>
     <sheet name="UnitData" sheetId="3" r:id="rId3"/>
     <sheet name="Marketing" sheetId="4" r:id="rId4"/>
+    <sheet name="DefaultPricing" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:O15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t>URL</t>
   </si>
@@ -246,6 +248,48 @@
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>PerLb</t>
+  </si>
+  <si>
+    <t>Missing required field: Charge</t>
+  </si>
+  <si>
+    <t>Fixed Cost</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>EstPeriod</t>
+  </si>
+  <si>
+    <t>Per Week</t>
+  </si>
+  <si>
+    <t>Semi-Monthly</t>
+  </si>
+  <si>
+    <t>PaymentTerm</t>
+  </si>
+  <si>
+    <t>7 Days</t>
+  </si>
+  <si>
+    <t>15 Days</t>
+  </si>
+  <si>
+    <t>30 Days</t>
+  </si>
+  <si>
+    <t>45 Days</t>
+  </si>
+  <si>
+    <t>60 Days</t>
+  </si>
+  <si>
+    <t>FCFreqency</t>
   </si>
 </sst>
 </file>
@@ -930,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347680E2-6370-44C2-83B8-11D37EADBB09}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -973,4 +1017,154 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9368B1DE-F56F-450D-99DA-CF1DD83A6C10}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>24.2</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>325.10000000000002</v>
+      </c>
+      <c r="D2">
+        <v>140.88999999999999</v>
+      </c>
+      <c r="E2">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="F2">
+        <v>23.56</v>
+      </c>
+      <c r="G2">
+        <v>24.56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.4</v>
+      </c>
+      <c r="B3">
+        <v>24.36</v>
+      </c>
+      <c r="D3">
+        <v>24.56</v>
+      </c>
+      <c r="F3">
+        <v>40.520000000000003</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>50.23</v>
+      </c>
+      <c r="F4">
+        <v>240.58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>30.25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>50.12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FiltaSymphony/CustomerPage.xlsx
+++ b/FiltaSymphony/CustomerPage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9F855854-32ED-4674-9320-22F393F44170}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A5490334-22D9-4701-9DEF-FE67C0BE09E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="23304" windowHeight="13224" tabRatio="450" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23304" windowHeight="13224" tabRatio="450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerFryer" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="DefaultPricing" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O15"/>
+  <oleSize ref="A1:K7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
   <si>
     <t>URL</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>FCFreqency</t>
+  </si>
+  <si>
+    <t>123-456-7890</t>
   </si>
 </sst>
 </file>
@@ -626,15 +629,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.77734375" customWidth="1"/>
     <col min="4" max="4" width="6.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -774,8 +777,8 @@
       <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="O2">
-        <v>2125129600</v>
+      <c r="O2" t="s">
+        <v>88</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1023,7 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9368B1DE-F56F-450D-99DA-CF1DD83A6C10}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>

--- a/FiltaSymphony/CustomerPage.xlsx
+++ b/FiltaSymphony/CustomerPage.xlsx
@@ -3,19 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A5490334-22D9-4701-9DEF-FE67C0BE09E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EE6B5CCC-D48C-438D-89E4-F972C81A7AEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="23304" windowHeight="13224" tabRatio="450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23304" windowHeight="13224" tabRatio="450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerFryer" sheetId="1" r:id="rId1"/>
-    <sheet name="Pricing" sheetId="2" r:id="rId2"/>
-    <sheet name="UnitData" sheetId="3" r:id="rId3"/>
-    <sheet name="Marketing" sheetId="4" r:id="rId4"/>
-    <sheet name="DefaultPricing" sheetId="5" r:id="rId5"/>
+    <sheet name="PerLb" sheetId="6" r:id="rId2"/>
+    <sheet name="FixedCost" sheetId="7" r:id="rId3"/>
+    <sheet name="Pricing" sheetId="2" r:id="rId4"/>
+    <sheet name="UnitData" sheetId="3" r:id="rId5"/>
+    <sheet name="Marketing" sheetId="4" r:id="rId6"/>
+    <sheet name="DefaultPricing" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K7"/>
+  <oleSize ref="A1:M13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="96">
   <si>
     <t>URL</t>
   </si>
@@ -293,6 +295,27 @@
   </si>
   <si>
     <t>123-456-7890</t>
+  </si>
+  <si>
+    <t>Per Lb Customer</t>
+  </si>
+  <si>
+    <t>Per Lb Customer DFN</t>
+  </si>
+  <si>
+    <t>Amir</t>
+  </si>
+  <si>
+    <t>Khan</t>
+  </si>
+  <si>
+    <t>Saif</t>
+  </si>
+  <si>
+    <t>Set/Fixed Cost Customer DFN</t>
+  </si>
+  <si>
+    <t>Set/Fixed Cost Customer</t>
   </si>
 </sst>
 </file>
@@ -629,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,7 +677,7 @@
     <col min="25" max="25" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -824,10 +847,372 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A393017-FD6D-4C99-B838-2C5CBA1A69D7}">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>2410</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>10036</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2">
+        <v>7258742145</v>
+      </c>
+      <c r="T2">
+        <v>241991</v>
+      </c>
+      <c r="U2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2">
+        <v>10036</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{A652EF74-3798-455E-80C7-5E7BDCC61A2A}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{A3CBEAFD-35E3-467C-A972-5B14E848C902}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B53759-7413-4C5C-B7E6-B51D92889465}">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>2410</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>10036</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2">
+        <v>7258742145</v>
+      </c>
+      <c r="T2">
+        <v>241991</v>
+      </c>
+      <c r="U2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2">
+        <v>10036</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{09A9238A-E3CE-4076-8272-7406F6DCEEB4}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{97040D19-975B-4B29-955B-C0756B331545}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA02278-208F-4558-975B-10446BEB3D40}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -918,7 +1303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30FDFC6-1CAD-42FB-ABBA-22D058B18631}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -973,7 +1358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347680E2-6370-44C2-83B8-11D37EADBB09}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1022,7 +1407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9368B1DE-F56F-450D-99DA-CF1DD83A6C10}">
   <dimension ref="A1:J7"/>
   <sheetViews>

--- a/FiltaSymphony/CustomerPage.xlsx
+++ b/FiltaSymphony/CustomerPage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EE6B5CCC-D48C-438D-89E4-F972C81A7AEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CDBA5AF2-6288-43D6-92BE-66CF47A0790E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="23304" windowHeight="13224" tabRatio="450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23304" windowHeight="13224" tabRatio="450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerFryer" sheetId="1" r:id="rId1"/>
@@ -1034,10 +1034,13 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="25.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/FiltaSymphony/CustomerPage.xlsx
+++ b/FiltaSymphony/CustomerPage.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CDBA5AF2-6288-43D6-92BE-66CF47A0790E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{41A1B5D0-98E9-4028-A37D-164DFEA7403A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="23304" windowHeight="13224" tabRatio="450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23304" windowHeight="13224" tabRatio="450" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerFryer" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="UnitData" sheetId="3" r:id="rId5"/>
     <sheet name="Marketing" sheetId="4" r:id="rId6"/>
     <sheet name="DefaultPricing" sheetId="5" r:id="rId7"/>
+    <sheet name="Lead" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:M13"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="104">
   <si>
     <t>URL</t>
   </si>
@@ -316,6 +317,30 @@
   </si>
   <si>
     <t>Set/Fixed Cost Customer</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Shinde</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Thushar</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Lead_To_Customer</t>
+  </si>
+  <si>
+    <t>Fryer</t>
   </si>
 </sst>
 </file>
@@ -851,7 +876,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1033,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B53759-7413-4C5C-B7E6-B51D92889465}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1215,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA02278-208F-4558-975B-10446BEB3D40}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1261,7 +1286,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="4">
-        <v>10</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -1288,6 +1313,9 @@
       </c>
       <c r="D3" s="4">
         <v>240</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1558,4 +1586,58 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9F30FA-C8F7-4595-A3A4-DC2948019B89}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FiltaSymphony/CustomerPage.xlsx
+++ b/FiltaSymphony/CustomerPage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{41A1B5D0-98E9-4028-A37D-164DFEA7403A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{81479BBC-D52F-4853-A84F-1F9F23D192E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="23304" windowHeight="13224" tabRatio="450" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23304" windowHeight="13224" tabRatio="450" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerFryer" sheetId="1" r:id="rId1"/>

--- a/FiltaSymphony/CustomerPage.xlsx
+++ b/FiltaSymphony/CustomerPage.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{81479BBC-D52F-4853-A84F-1F9F23D192E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23304" windowHeight="13224" tabRatio="450" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7695" tabRatio="450" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PerFryer" sheetId="1" r:id="rId1"/>
@@ -16,273 +15,299 @@
     <sheet name="Marketing" sheetId="4" r:id="rId6"/>
     <sheet name="DefaultPricing" sheetId="5" r:id="rId7"/>
     <sheet name="Lead" sheetId="8" r:id="rId8"/>
+    <sheet name="Operations" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:M13"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
+  <oleSize ref="B1:N13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="126">
   <si>
     <t>URL</t>
   </si>
   <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>NCAChain</t>
+  </si>
+  <si>
+    <t>NcaUnitCode</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>PrimaryEmail</t>
+  </si>
+  <si>
+    <t>Site_Street</t>
+  </si>
+  <si>
+    <t>Site_City</t>
+  </si>
+  <si>
+    <t>Site_State</t>
+  </si>
+  <si>
+    <t>Site_PostalCode</t>
+  </si>
+  <si>
+    <t>Site_Contry</t>
+  </si>
+  <si>
+    <t>Office_Phone</t>
+  </si>
+  <si>
+    <t>Ext</t>
+  </si>
+  <si>
+    <t>ArrivalNotes</t>
+  </si>
+  <si>
+    <t>DepartureNote</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Nca_Supplier</t>
+  </si>
+  <si>
+    <t>InvoiceStreet</t>
+  </si>
+  <si>
+    <t>InvoiceCity</t>
+  </si>
+  <si>
+    <t>InvoiceState</t>
+  </si>
+  <si>
+    <t>InvoicePostal</t>
+  </si>
+  <si>
+    <t>InvoiceCountry</t>
+  </si>
+  <si>
+    <t>Service_Frequency</t>
+  </si>
+  <si>
     <t>https://dev.filtasymphony.com/index.php?module=Accounts&amp;action=index&amp;parentTab=Customers</t>
   </si>
   <si>
-    <t>Firstname</t>
-  </si>
-  <si>
     <t>Kunal</t>
   </si>
   <si>
-    <t>Lastname</t>
-  </si>
-  <si>
     <t>Chavan</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Per Fryer Customer</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>NCAChain</t>
+    <t>Per Fryer Customer DFN</t>
   </si>
   <si>
     <t>Sodexo</t>
   </si>
   <si>
-    <t>NcaUnitCode</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>PrimaryEmail</t>
-  </si>
-  <si>
     <t>kunalchavan@benchmarkit.solutions</t>
   </si>
   <si>
-    <t>Site_Street</t>
-  </si>
-  <si>
     <t>234 W 42nd St</t>
   </si>
   <si>
-    <t>Site_City</t>
-  </si>
-  <si>
     <t>New York</t>
   </si>
   <si>
-    <t>Site_State</t>
-  </si>
-  <si>
     <t>NY</t>
   </si>
   <si>
-    <t>Site_PostalCode</t>
-  </si>
-  <si>
-    <t>Office_Phone</t>
-  </si>
-  <si>
-    <t>Ext</t>
-  </si>
-  <si>
-    <t>ArrivalNotes</t>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>123-456-7890</t>
   </si>
   <si>
     <t xml:space="preserve">Museum chain for life-size wax replicas of famous Americans &amp; historic icons in themed galleries.
 </t>
   </si>
   <si>
-    <t>DepartureNote</t>
-  </si>
-  <si>
     <t>The place is nice, but it's unusual small, very few pieces of wax sculptures</t>
   </si>
   <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Nca_Supplier</t>
-  </si>
-  <si>
-    <t>InvoiceStreet</t>
-  </si>
-  <si>
-    <t>InvoiceCity</t>
-  </si>
-  <si>
-    <t>InvoiceState</t>
-  </si>
-  <si>
-    <t>InvoicePostal</t>
-  </si>
-  <si>
-    <t>InvoiceCountry</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Service_Frequency</t>
-  </si>
-  <si>
     <t>I would like to receive a service summary after each service</t>
   </si>
   <si>
-    <t>Site_Contry</t>
+    <t>Amir</t>
+  </si>
+  <si>
+    <t>Khan</t>
+  </si>
+  <si>
+    <t>Per Lb Customer</t>
+  </si>
+  <si>
+    <t>Per Lb Customer DFN</t>
+  </si>
+  <si>
+    <t>Saif</t>
+  </si>
+  <si>
+    <t>Set/Fixed Cost Customer</t>
+  </si>
+  <si>
+    <t>Set/Fixed Cost Customer DFN</t>
   </si>
   <si>
     <t>FF</t>
   </si>
   <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>Defaultpricing</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>InvoicePeriod</t>
+  </si>
+  <si>
+    <t>Payement</t>
+  </si>
+  <si>
     <t>Per Fryer</t>
   </si>
   <si>
-    <t>FC</t>
-  </si>
-  <si>
     <t>Monthly</t>
   </si>
   <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>FG</t>
-  </si>
-  <si>
-    <t>Defaultpricing</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>InvoicePeriod</t>
-  </si>
-  <si>
     <t>Per Job</t>
   </si>
   <si>
-    <t>Payement</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
     <t>Please add Per Frying pricing details in the Fryers sub-panel.</t>
   </si>
   <si>
-    <t>Per Fryer Customer DFN</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Oil</t>
   </si>
   <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Waste Oil</t>
+  </si>
+  <si>
+    <t>RTI</t>
+  </si>
+  <si>
+    <t>ServicTime</t>
+  </si>
+  <si>
+    <t>DumpDesc</t>
+  </si>
+  <si>
     <t>Soyabean</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Waste Oil</t>
-  </si>
-  <si>
     <t>Wastage</t>
   </si>
   <si>
-    <t>RTI</t>
-  </si>
-  <si>
     <t>RT Added</t>
   </si>
   <si>
-    <t>ServicTime</t>
-  </si>
-  <si>
     <t>10 to 7</t>
   </si>
   <si>
-    <t>DumpDesc</t>
-  </si>
-  <si>
     <t>DumpAdded</t>
   </si>
   <si>
     <t>Sub Type</t>
   </si>
   <si>
+    <t>Affiliation</t>
+  </si>
+  <si>
+    <t>ChainInput</t>
+  </si>
+  <si>
+    <t>NCA</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
     <t>Restro &amp; Bar</t>
   </si>
   <si>
-    <t>Affiliation</t>
-  </si>
-  <si>
-    <t>ChainInput</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
-    <t>NCA</t>
-  </si>
-  <si>
     <t>Aramark</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
     <t>PerLb</t>
   </si>
   <si>
+    <t>Fixed Cost</t>
+  </si>
+  <si>
+    <t>EstPeriod</t>
+  </si>
+  <si>
+    <t>PaymentTerm</t>
+  </si>
+  <si>
+    <t>FCFreqency</t>
+  </si>
+  <si>
+    <t>Per Week</t>
+  </si>
+  <si>
+    <t>7 Days</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Semi-Monthly</t>
+  </si>
+  <si>
+    <t>15 Days</t>
+  </si>
+  <si>
     <t>Missing required field: Charge</t>
   </si>
   <si>
-    <t>Fixed Cost</t>
-  </si>
-  <si>
-    <t>Weekly</t>
-  </si>
-  <si>
-    <t>EstPeriod</t>
-  </si>
-  <si>
-    <t>Per Week</t>
-  </si>
-  <si>
-    <t>Semi-Monthly</t>
-  </si>
-  <si>
-    <t>PaymentTerm</t>
-  </si>
-  <si>
-    <t>7 Days</t>
-  </si>
-  <si>
-    <t>15 Days</t>
-  </si>
-  <si>
     <t>30 Days</t>
   </si>
   <si>
@@ -292,45 +317,18 @@
     <t>60 Days</t>
   </si>
   <si>
-    <t>FCFreqency</t>
-  </si>
-  <si>
-    <t>123-456-7890</t>
-  </si>
-  <si>
-    <t>Per Lb Customer</t>
-  </si>
-  <si>
-    <t>Per Lb Customer DFN</t>
-  </si>
-  <si>
-    <t>Amir</t>
-  </si>
-  <si>
-    <t>Khan</t>
-  </si>
-  <si>
-    <t>Saif</t>
-  </si>
-  <si>
-    <t>Set/Fixed Cost Customer DFN</t>
-  </si>
-  <si>
-    <t>Set/Fixed Cost Customer</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Last Name</t>
   </si>
   <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Fryer</t>
+  </si>
+  <si>
     <t>Shinde</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
     <t>Thushar</t>
   </si>
   <si>
@@ -340,19 +338,88 @@
     <t>Lead_To_Customer</t>
   </si>
   <si>
-    <t>Fryer</t>
+    <t>Active Percent</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Active 1K Program</t>
+  </si>
+  <si>
+    <t>Active 6k Program</t>
+  </si>
+  <si>
+    <t>Active Collector</t>
+  </si>
+  <si>
+    <t>Signed Waiting</t>
+  </si>
+  <si>
+    <t>WC Issues</t>
+  </si>
+  <si>
+    <t>Scheduled Jobs Calendar</t>
+  </si>
+  <si>
+    <t>Scheduled Jobs</t>
+  </si>
+  <si>
+    <t>Performed Jobs</t>
+  </si>
+  <si>
+    <t>Weekly Schedules</t>
+  </si>
+  <si>
+    <t>Schedule Infos</t>
+  </si>
+  <si>
+    <t>FiltaBio Collections</t>
+  </si>
+  <si>
+    <t>FiltaBio Reported Volumes</t>
+  </si>
+  <si>
+    <t>FiltaCool Customers</t>
+  </si>
+  <si>
+    <t>FiltaBio 1k Reported Volumes</t>
+  </si>
+  <si>
+    <t>FiltaCool Service Calendar</t>
+  </si>
+  <si>
+    <t>FiltaCool Service To Do List</t>
+  </si>
+  <si>
+    <t>FiltaBio 1k Collections</t>
+  </si>
+  <si>
+    <t>FiltaGold</t>
+  </si>
+  <si>
+    <t>Red Tag</t>
+  </si>
+  <si>
+    <t>Oil Temperature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -360,19 +427,341 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -380,33 +769,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -455,7 +1126,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -490,7 +1161,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -664,142 +1335,136 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.78095238095238" customWidth="1"/>
+    <col min="4" max="4" width="6.1047619047619" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="7.33333333333333" customWidth="1"/>
+    <col min="9" max="9" width="11.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="12.6666666666667" customWidth="1"/>
+    <col min="13" max="14" width="14.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="17" max="17" width="11.1047619047619" customWidth="1"/>
+    <col min="18" max="18" width="61.3333333333333" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
+    <col min="20" max="20" width="11.6666666666667" customWidth="1"/>
+    <col min="21" max="21" width="12.6666666666667" customWidth="1"/>
+    <col min="23" max="23" width="11.1047619047619" customWidth="1"/>
+    <col min="24" max="24" width="11.8857142857143" customWidth="1"/>
+    <col min="25" max="25" width="13.4380952380952" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="180" spans="1:26">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S1" t="s">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="T1" t="s">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="V1" t="s">
+      <c r="F2" t="s">
         <v>31</v>
-      </c>
-      <c r="W1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
       <c r="G2">
         <v>24</v>
@@ -807,35 +1472,35 @@
       <c r="H2">
         <v>2410</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
+      <c r="I2" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M2">
         <v>10036</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>25</v>
+      <c r="Q2" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S2">
         <v>7258742145</v>
@@ -844,145 +1509,147 @@
         <v>241991</v>
       </c>
       <c r="U2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="W2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X2">
         <v>10036</v>
       </c>
       <c r="Y2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{21BAC863-7455-48E1-9886-9818CA9D4FC6}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{8AA9E798-C90C-4BC3-80AB-4CEFD5A257AA}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://dev.filtasymphony.com/index.php?module=Accounts&amp;action=index&amp;parentTab=Customers"/>
+    <hyperlink ref="I2" r:id="rId2" display="kunalchavan@benchmarkit.solutions"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A393017-FD6D-4C99-B838-2C5CBA1A69D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="210" spans="1:26">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>31</v>
-      </c>
-      <c r="W1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
       <c r="G2">
         <v>24</v>
@@ -990,35 +1657,35 @@
       <c r="H2">
         <v>2410</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
+      <c r="I2" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M2">
         <v>10036</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>25</v>
+      <c r="Q2" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S2">
         <v>7258742145</v>
@@ -1027,144 +1694,146 @@
         <v>241991</v>
       </c>
       <c r="U2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="W2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X2">
         <v>10036</v>
       </c>
       <c r="Y2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{A652EF74-3798-455E-80C7-5E7BDCC61A2A}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{A3CBEAFD-35E3-467C-A972-5B14E848C902}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://dev.filtasymphony.com/index.php?module=Accounts&amp;action=index&amp;parentTab=Customers"/>
+    <hyperlink ref="I2" r:id="rId2" display="kunalchavan@benchmarkit.solutions"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B53759-7413-4C5C-B7E6-B51D92889465}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="5" max="5" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.2190476190476" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="210" spans="1:26">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
         <v>31</v>
-      </c>
-      <c r="W1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
       <c r="G2">
         <v>24</v>
@@ -1172,35 +1841,35 @@
       <c r="H2">
         <v>2410</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
+      <c r="I2" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M2">
         <v>10036</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>25</v>
+      <c r="Q2" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S2">
         <v>7258742145</v>
@@ -1209,282 +1878,290 @@
         <v>241991</v>
       </c>
       <c r="U2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="W2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X2">
         <v>10036</v>
       </c>
       <c r="Y2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{09A9238A-E3CE-4076-8272-7406F6DCEEB4}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{97040D19-975B-4B29-955B-C0756B331545}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://dev.filtasymphony.com/index.php?module=Accounts&amp;action=index&amp;parentTab=Customers"/>
+    <hyperlink ref="I2" r:id="rId2" display="kunalchavan@benchmarkit.solutions"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA02278-208F-4558-975B-10446BEB3D40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="49.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.2190476190476" customWidth="1"/>
+    <col min="5" max="5" width="12.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.1047619047619" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="D2" s="4">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10.05</v>
+      </c>
+      <c r="D2" s="3">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="4">
+        <v>58</v>
+      </c>
+      <c r="F2" s="3">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="4">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3">
         <v>150</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>240</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D4" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D5" s="4">
+    <row r="5" spans="4:4">
+      <c r="D5" s="3">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30FDFC6-1CAD-42FB-ABBA-22D058B18631}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347680E2-6370-44C2-83B8-11D37EADBB09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9368B1DE-F56F-450D-99DA-CF1DD83A6C10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.2190476190476" customWidth="1"/>
+    <col min="9" max="9" width="12.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>24.2</v>
       </c>
@@ -1492,13 +2169,13 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>325.10000000000002</v>
+        <v>325.1</v>
       </c>
       <c r="D2">
-        <v>140.88999999999999</v>
+        <v>140.89</v>
       </c>
       <c r="E2">
-        <v>10.050000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="F2">
         <v>23.56</v>
@@ -1507,16 +2184,16 @@
         <v>24.56</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2.4</v>
       </c>
@@ -1527,19 +2204,19 @@
         <v>24.56</v>
       </c>
       <c r="F3">
-        <v>40.520000000000003</v>
+        <v>40.52</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>40</v>
       </c>
@@ -1550,88 +2227,90 @@
         <v>240.58</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6">
         <v>30.25</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7">
         <v>50.12</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9F30FA-C8F7-4595-A3A4-DC2948019B89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.78095238095238" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>97</v>
       </c>
       <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -1639,5 +2318,358 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="3" width="27.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="29.8571428571429" customWidth="1"/>
+    <col min="5" max="7" width="27.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>